--- a/ndmo_monitoring_demo/example_entity/scan_2025-07-01/results.xlsx
+++ b/ndmo_monitoring_demo/example_entity/scan_2025-07-01/results.xlsx
@@ -28,22 +28,22 @@
     <t>البيانات المطلوب جمعها</t>
   </si>
   <si>
-    <t>طريقة الجمع</t>
-  </si>
-  <si>
-    <t>وسيلة الحفظ</t>
-  </si>
-  <si>
-    <t>كيفية المعالجة</t>
-  </si>
-  <si>
-    <t>كيفية الإتلاف</t>
+    <t>طريقة جمع البيانات</t>
+  </si>
+  <si>
+    <t>وسيلة حفظ البيانات</t>
+  </si>
+  <si>
+    <t>كيفية معالجة البيانات</t>
+  </si>
+  <si>
+    <t>كيفية إتلاف البيانات</t>
   </si>
   <si>
     <t>حقوق صاحب البيانات</t>
   </si>
   <si>
-    <t>كيفية ممارسة الحقوق</t>
+    <t>طريقة ممارسة الحقوق</t>
   </si>
   <si>
     <t>✅</t>
